--- a/simulation_data/iterative_algorithm/i_error_level_9_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_9_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.04479146373471</v>
+        <v>91.46687949306106</v>
       </c>
       <c r="D2" t="n">
-        <v>17.71286964536933</v>
+        <v>15.15775288816837</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.07353366428572</v>
+        <v>86.47496284537077</v>
       </c>
       <c r="D3" t="n">
-        <v>15.11885124185997</v>
+        <v>13.17352089348731</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.28302132711678</v>
+        <v>88.50299494849077</v>
       </c>
       <c r="D4" t="n">
-        <v>17.58460669087966</v>
+        <v>16.37506845660345</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.8863295760147</v>
+        <v>86.08545720031113</v>
       </c>
       <c r="D5" t="n">
-        <v>17.25008138319086</v>
+        <v>16.34564351586697</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>81.49144780595596</v>
+        <v>85.11555887191147</v>
       </c>
       <c r="D6" t="n">
-        <v>15.3721216201341</v>
+        <v>16.02690303449903</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.24360165585774</v>
+        <v>81.80416240288154</v>
       </c>
       <c r="D7" t="n">
-        <v>14.76178884749626</v>
+        <v>19.4658519580584</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.53292040544437</v>
+        <v>85.34005346069866</v>
       </c>
       <c r="D8" t="n">
-        <v>15.74230531688828</v>
+        <v>15.79300755765323</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.3095771816768</v>
+        <v>84.49235720498231</v>
       </c>
       <c r="D9" t="n">
-        <v>17.5406627359707</v>
+        <v>13.00248942613123</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.15233595517658</v>
+        <v>79.19294107147599</v>
       </c>
       <c r="D10" t="n">
-        <v>17.8586207086221</v>
+        <v>18.82366906925012</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.81937418369536</v>
+        <v>77.47036660172198</v>
       </c>
       <c r="D11" t="n">
-        <v>17.91419483333337</v>
+        <v>16.05761935430582</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.86341994694287</v>
+        <v>81.91821750766668</v>
       </c>
       <c r="D12" t="n">
-        <v>17.55730908742443</v>
+        <v>14.41617298675214</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.68863922865286</v>
+        <v>80.96172063618563</v>
       </c>
       <c r="D13" t="n">
-        <v>16.27277681409526</v>
+        <v>14.39193821630826</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.02536084001979</v>
+        <v>76.30540734487093</v>
       </c>
       <c r="D14" t="n">
-        <v>16.79846011315509</v>
+        <v>15.94803696503174</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.21764077023117</v>
+        <v>75.88124792552244</v>
       </c>
       <c r="D15" t="n">
-        <v>15.71517952132524</v>
+        <v>17.45910013858844</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.54023429281143</v>
+        <v>72.43524120511424</v>
       </c>
       <c r="D16" t="n">
-        <v>16.30524293705228</v>
+        <v>16.54331913052252</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.1632580606875</v>
+        <v>73.35440416128347</v>
       </c>
       <c r="D17" t="n">
-        <v>16.68694172841419</v>
+        <v>14.81062134154677</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.57267370685571</v>
+        <v>76.54007754466227</v>
       </c>
       <c r="D18" t="n">
-        <v>18.27296439663317</v>
+        <v>15.2567800865972</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.10763247753421</v>
+        <v>74.25123515584289</v>
       </c>
       <c r="D19" t="n">
-        <v>14.62768094323366</v>
+        <v>17.18680168034278</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.13708102196634</v>
+        <v>73.87424833433749</v>
       </c>
       <c r="D20" t="n">
-        <v>15.63653025692875</v>
+        <v>16.4602544128371</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.5343760935836</v>
+        <v>70.30108790210721</v>
       </c>
       <c r="D21" t="n">
-        <v>16.23541080554374</v>
+        <v>15.29633502820582</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.93388897718449</v>
+        <v>70.71634299015244</v>
       </c>
       <c r="D22" t="n">
-        <v>13.511867942087</v>
+        <v>16.73373501330364</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>66.50215697487266</v>
+        <v>67.08400529128758</v>
       </c>
       <c r="D23" t="n">
-        <v>16.00454048488206</v>
+        <v>15.53724187488461</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.76414404336914</v>
+        <v>68.01836967046813</v>
       </c>
       <c r="D24" t="n">
-        <v>16.63774748555996</v>
+        <v>15.197412996239</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.34411866785908</v>
+        <v>67.3371326707998</v>
       </c>
       <c r="D25" t="n">
-        <v>16.91919294081611</v>
+        <v>14.64844925835793</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.69637514633038</v>
+        <v>63.88421208260969</v>
       </c>
       <c r="D26" t="n">
-        <v>16.72376429769379</v>
+        <v>16.45324609134435</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.33690345237583</v>
+        <v>64.70215663606888</v>
       </c>
       <c r="D27" t="n">
-        <v>17.37874899566963</v>
+        <v>16.92032026545658</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.37496776781398</v>
+        <v>64.85326070560943</v>
       </c>
       <c r="D28" t="n">
-        <v>15.98768930324835</v>
+        <v>16.35373423066238</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.12758749325545</v>
+        <v>64.44295156741111</v>
       </c>
       <c r="D29" t="n">
-        <v>17.30449978770859</v>
+        <v>15.21712389802294</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>58.62772634657311</v>
+        <v>63.62931750914545</v>
       </c>
       <c r="D30" t="n">
-        <v>16.27724707911731</v>
+        <v>17.50029338086181</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.32939158976706</v>
+        <v>59.59575804637969</v>
       </c>
       <c r="D31" t="n">
-        <v>16.24829521541644</v>
+        <v>16.73183322465849</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.48114603589406</v>
+        <v>59.07933216904068</v>
       </c>
       <c r="D32" t="n">
-        <v>16.95815676511344</v>
+        <v>15.77940946398712</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.51723363214264</v>
+        <v>58.73740528131504</v>
       </c>
       <c r="D33" t="n">
-        <v>16.65686126736914</v>
+        <v>16.41962998732311</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.79012764934184</v>
+        <v>55.49097789807271</v>
       </c>
       <c r="D34" t="n">
-        <v>15.50216588597584</v>
+        <v>16.37513549953115</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.02584869720943</v>
+        <v>55.77933632238923</v>
       </c>
       <c r="D35" t="n">
-        <v>14.32681203003171</v>
+        <v>15.48631623974556</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>60.18397479216853</v>
+        <v>57.42687976518798</v>
       </c>
       <c r="D36" t="n">
-        <v>17.93537537401531</v>
+        <v>13.80828422649963</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.48182246800431</v>
+        <v>55.62495530171925</v>
       </c>
       <c r="D37" t="n">
-        <v>15.95727526730884</v>
+        <v>16.68888317652496</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.492549019303</v>
+        <v>55.36661833649055</v>
       </c>
       <c r="D38" t="n">
-        <v>15.08022488092972</v>
+        <v>17.36833461471331</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>55.32475226687685</v>
+        <v>51.08995636411152</v>
       </c>
       <c r="D39" t="n">
-        <v>17.45079351798793</v>
+        <v>16.71312960512175</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.40391045470271</v>
+        <v>51.17308201427689</v>
       </c>
       <c r="D40" t="n">
-        <v>17.40757446304536</v>
+        <v>16.03709289313589</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.62377058712818</v>
+        <v>50.03749297288272</v>
       </c>
       <c r="D41" t="n">
-        <v>15.50922679475332</v>
+        <v>15.64544168157011</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.20243973134063</v>
+        <v>47.29197310008396</v>
       </c>
       <c r="D42" t="n">
-        <v>15.44233421737689</v>
+        <v>15.32804477253866</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.60877747972075</v>
+        <v>48.9215865307742</v>
       </c>
       <c r="D43" t="n">
-        <v>17.72028170789428</v>
+        <v>15.25033754837725</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.58270456932024</v>
+        <v>50.27020930017252</v>
       </c>
       <c r="D44" t="n">
-        <v>16.63512745910034</v>
+        <v>15.16741929658398</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.377584103697</v>
+        <v>47.90170166020945</v>
       </c>
       <c r="D45" t="n">
-        <v>16.24082154716394</v>
+        <v>15.06900539998742</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.02812278213251</v>
+        <v>45.72798962303013</v>
       </c>
       <c r="D46" t="n">
-        <v>18.73956592591816</v>
+        <v>13.54126358223401</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.60076968625763</v>
+        <v>45.58998346937723</v>
       </c>
       <c r="D47" t="n">
-        <v>14.06642678303045</v>
+        <v>17.68333799349637</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.22606071225587</v>
+        <v>42.88256423199465</v>
       </c>
       <c r="D48" t="n">
-        <v>17.20401581890053</v>
+        <v>15.04471875459066</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.22606573513136</v>
+        <v>42.0703766913475</v>
       </c>
       <c r="D49" t="n">
-        <v>15.46584327753562</v>
+        <v>13.92927482474798</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>40.63541516807121</v>
+        <v>42.38172346071772</v>
       </c>
       <c r="D50" t="n">
-        <v>15.25290617210034</v>
+        <v>15.29418097347463</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.72673000164004</v>
+        <v>42.2315560571849</v>
       </c>
       <c r="D51" t="n">
-        <v>16.09527332860614</v>
+        <v>15.52000160710553</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>45.11248944532704</v>
+        <v>41.12662070253968</v>
       </c>
       <c r="D52" t="n">
-        <v>15.18320461152647</v>
+        <v>16.48599917197334</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.40037133683182</v>
+        <v>38.87500741122508</v>
       </c>
       <c r="D53" t="n">
-        <v>15.70561369102874</v>
+        <v>15.90420343467574</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.76426304105554</v>
+        <v>39.03270000523433</v>
       </c>
       <c r="D54" t="n">
-        <v>15.71536242764403</v>
+        <v>16.02528727563319</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.33822069501887</v>
+        <v>36.63698491617873</v>
       </c>
       <c r="D55" t="n">
-        <v>17.65711951908082</v>
+        <v>15.29799507385555</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.51514931488981</v>
+        <v>38.47782807708579</v>
       </c>
       <c r="D56" t="n">
-        <v>17.13684523378776</v>
+        <v>15.20727445566219</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>30.75011671136041</v>
+        <v>34.27037591811487</v>
       </c>
       <c r="D57" t="n">
-        <v>16.80358318622076</v>
+        <v>16.26547687394849</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.75920777052173</v>
+        <v>34.98678705831391</v>
       </c>
       <c r="D58" t="n">
-        <v>14.95566624099214</v>
+        <v>17.37546746442913</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>37.34144374990139</v>
+        <v>32.60087439370959</v>
       </c>
       <c r="D59" t="n">
-        <v>16.98030693910913</v>
+        <v>16.58931205493607</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.66792494745673</v>
+        <v>33.20774355180698</v>
       </c>
       <c r="D60" t="n">
-        <v>14.08617176718129</v>
+        <v>16.2470096970748</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.38102139685948</v>
+        <v>29.26301061075279</v>
       </c>
       <c r="D61" t="n">
-        <v>14.99019112057863</v>
+        <v>16.25431037716315</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.49643628258145</v>
+        <v>32.44103529550492</v>
       </c>
       <c r="D62" t="n">
-        <v>14.28209794217894</v>
+        <v>14.99227538613066</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.96439073219064</v>
+        <v>31.93197800169412</v>
       </c>
       <c r="D63" t="n">
-        <v>16.98910892577945</v>
+        <v>16.13472070203116</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.45620589366256</v>
+        <v>25.9571711159201</v>
       </c>
       <c r="D64" t="n">
-        <v>16.30676359263458</v>
+        <v>15.88049909029363</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.91278139705001</v>
+        <v>27.30985352260141</v>
       </c>
       <c r="D65" t="n">
-        <v>17.11398442950827</v>
+        <v>17.64622950867712</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>30.28800435646661</v>
+        <v>26.90507050503444</v>
       </c>
       <c r="D66" t="n">
-        <v>16.39198487356463</v>
+        <v>17.73226815574672</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.24392692098423</v>
+        <v>23.05021397802362</v>
       </c>
       <c r="D67" t="n">
-        <v>16.71749647701506</v>
+        <v>17.64362092828066</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.12993084900863</v>
+        <v>22.88098884455112</v>
       </c>
       <c r="D68" t="n">
-        <v>17.63985781909497</v>
+        <v>18.4050314570461</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.30177036574089</v>
+        <v>25.10054443296623</v>
       </c>
       <c r="D69" t="n">
-        <v>14.31576476031809</v>
+        <v>14.26859502420042</v>
       </c>
     </row>
   </sheetData>
